--- a/P0005/09_FICHAS/N3-FD-General.xlsx
+++ b/P0005/09_FICHAS/N3-FD-General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2008" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{482B179F-D387-4BED-B6D7-06B7016A24DD}"/>
+  <xr:revisionPtr revIDLastSave="2010" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0639EB88-A12B-4020-B16A-4CA8CF4EE00E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/P0005/09_FICHAS/N3-FD-General.xlsx
+++ b/P0005/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2010" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0639EB88-A12B-4020-B16A-4CA8CF4EE00E}"/>
+  <xr:revisionPtr revIDLastSave="2019" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D33435E-9794-4A9D-9190-9863D41525E7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,17 +2270,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="145" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>

--- a/P0005/09_FICHAS/N3-FD-General.xlsx
+++ b/P0005/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0005/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2034" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{631C5F5B-26C8-46EA-8BD9-DF7B19498F9C}"/>
+  <xr:revisionPtr revIDLastSave="2035" documentId="13_ncr:1_{EF794E9E-6F1A-4BEB-A1C5-7B22EC18A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B33A25D-B267-4A75-87F4-84470E74C217}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,6 +137,9 @@
     <t>R0002</t>
   </si>
   <si>
+    <t>CONSTRUCCIONES_CONVENCIONALES</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0005/02_PRODUCTOS/Achi/Cartografia Tematica/ElementosExpuestos/Elementos_Expuestos.gdb</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>R0003</t>
   </si>
   <si>
+    <t>CONSTRUCCIONES_NO_CONVENCIONALES</t>
+  </si>
+  <si>
     <t>Capa cartográfica"Elementos_Expuestos — CONSTRUCCIONES_NO_CONVENCIONALES" describe las características de construcciones no convencionales mediante polígonos. Cada polígono representa una construcción con atributos que especifican el material de construcción (ej., cemento, grama), el uso (canchas, tanques, etc.), la longitud ("Shape_Length") y el área ("Shape_Area").  Esta capa permite un análisis detallado de la vulnerabilidad de estas construcciones a eventos como inundaciones y otros riesgos, así como un análisis de las funciones que cumplen dentro de la comunidad</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
     <t>R0004</t>
   </si>
   <si>
+    <t>PUENTES</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capa cartográfica "Elementos_Expuestos — PUENTES" representa la ubicación de los puentes mediante puntos.  Cada punto contiene información sobre el material de construcción del puente (ej., madera, concreto).  Esta capa es fundamental para analizar la conectividad de la red vial, la vulnerabilidad de los puentes a eventos naturales (inundaciones, vientos fuertes), y la resiliencia de las comunidades ante interrupciones en la infraestructura vial. </t>
   </si>
   <si>
@@ -188,6 +197,9 @@
     <t>R0005</t>
   </si>
   <si>
+    <t>VIAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capa cartográfica "Elementos_Expuestos—VIAS" contiene información sobre la red vial del municipio de Achí, representada como líneas.  Cada línea representa una vía, con atributos que describen el estado de la vía (pavimentado o no pavimentado) y su tipo (clasificación de la vía).  Adicionalmente, se incluye la longitud de cada vía ("Shape_Length").  Esta capa es crucial para el análisis de la accesibilidad, la conectividad, y la eficiencia del transporte en la región, siendo fundamental para evaluar la vulnerabilidad y la capacidad de respuesta ante emergencias. </t>
   </si>
   <si>
@@ -395,6 +407,9 @@
     <t>R0016</t>
   </si>
   <si>
+    <t>CONSTRUCCION</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0005/02_PRODUCTOS/Achi/Cartografia Tematica/TipologiadelaConstruccion/TC_Mojana.gdb</t>
   </si>
   <si>
@@ -410,6 +425,9 @@
     <t>R0017</t>
   </si>
   <si>
+    <t>NOMENCLATURA_VIAL</t>
+  </si>
+  <si>
     <t>La Feature Class, capa cartográfica "TC_Mojana-NOMENCLATURA VIAL" contiene información sobre la red vial del municipio de Achí.  Cada línea representa una vía, con atributos que incluyen la nomenclatura de la vía (nombre de la calle o carrera) y su estado (pavimentado o no pavimentado).  Esta capa es crucial para el análisis de la accesibilidad, la conectividad, y la capacidad de evacuación en caso de emergencias.  La información puede ser utilizada para analizar la relación entre la infraestructura vial y otros aspectos socio-ecológicos.</t>
   </si>
   <si>
@@ -1824,31 +1842,13 @@
   </si>
   <si>
     <t>Geomorfología, geoformas, estructural plegado, coluvio-aluvial, aluvial, Sucre</t>
-  </si>
-  <si>
-    <t>CONSTRUCCIONES_CONVENCIONALES</t>
-  </si>
-  <si>
-    <t>CONSTRUCCIONES_NO_CONVENCIONALES</t>
-  </si>
-  <si>
-    <t>PUENTES</t>
-  </si>
-  <si>
-    <t>VIAS</t>
-  </si>
-  <si>
-    <t>CONSTRUCCION</t>
-  </si>
-  <si>
-    <t>NOMENCLATURA_VIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1966,7 +1966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1981,6 +1981,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2271,13 +2274,13 @@
   <dimension ref="A1:P470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
@@ -2297,7 +2300,7 @@
     <col min="16" max="16" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2313,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2347,7 +2350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30.75">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2397,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2408,10 +2411,10 @@
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>2015</v>
@@ -2420,16 +2423,16 @@
         <v>9999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>26</v>
@@ -2441,13 +2444,13 @@
         <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2455,13 +2458,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>2015</v>
@@ -2470,16 +2473,16 @@
         <v>9999</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>26</v>
@@ -2491,13 +2494,13 @@
         <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2505,13 +2508,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>597</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>2015</v>
@@ -2520,19 +2523,19 @@
         <v>9999</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>27</v>
@@ -2541,13 +2544,13 @@
         <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2555,13 +2558,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>598</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>2015</v>
@@ -2570,19 +2573,19 @@
         <v>9999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>27</v>
@@ -2591,13 +2594,13 @@
         <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2605,22 +2608,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
         <v>2015</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -2641,13 +2644,13 @@
         <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2655,28 +2658,28 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>25</v>
@@ -2691,13 +2694,13 @@
         <v>28</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2705,22 +2708,22 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2">
         <v>2015</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -2729,10 +2732,10 @@
         <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>27</v>
@@ -2741,13 +2744,13 @@
         <v>28</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2755,22 +2758,22 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2">
         <v>2015</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -2779,10 +2782,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>27</v>
@@ -2791,13 +2794,13 @@
         <v>28</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2805,22 +2808,22 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2">
         <v>2015</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -2829,10 +2832,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>27</v>
@@ -2841,13 +2844,13 @@
         <v>28</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2855,22 +2858,22 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F12" s="2">
         <v>2015</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2879,10 +2882,10 @@
         <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>27</v>
@@ -2891,13 +2894,13 @@
         <v>28</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2905,22 +2908,22 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2">
         <v>2015</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2929,10 +2932,10 @@
         <v>24</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>27</v>
@@ -2941,13 +2944,13 @@
         <v>28</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2955,13 +2958,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2">
         <v>2015</v>
@@ -2970,7 +2973,7 @@
         <v>9999</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2979,10 +2982,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>27</v>
@@ -2991,13 +2994,13 @@
         <v>28</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3005,13 +3008,13 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2">
         <v>2015</v>
@@ -3020,7 +3023,7 @@
         <v>9999</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -3029,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>26</v>
@@ -3041,13 +3044,13 @@
         <v>28</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3055,22 +3058,22 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F16" s="2">
         <v>2015</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -3079,7 +3082,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>26</v>
@@ -3091,13 +3094,13 @@
         <v>28</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3105,13 +3108,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F17" s="2">
         <v>2015</v>
@@ -3120,16 +3123,16 @@
         <v>9999</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>26</v>
@@ -3141,13 +3144,13 @@
         <v>28</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3155,13 +3158,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F18" s="2">
         <v>2015</v>
@@ -3170,19 +3173,19 @@
         <v>9999</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>27</v>
@@ -3191,13 +3194,13 @@
         <v>28</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -3205,13 +3208,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F19" s="2">
         <v>2015</v>
@@ -3220,34 +3223,34 @@
         <v>9999</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3255,82 +3258,82 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="J20" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
@@ -3341,13 +3344,13 @@
         <v>28</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3355,31 +3358,31 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F22" s="2">
         <v>2015</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -3394,10 +3397,10 @@
         <v>17</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -3405,28 +3408,28 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2">
         <v>2015</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -3441,13 +3444,13 @@
         <v>28</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3455,31 +3458,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F24" s="2">
         <v>2015</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
@@ -3491,13 +3494,13 @@
         <v>28</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -3505,31 +3508,31 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2">
         <v>2015</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
@@ -3541,13 +3544,13 @@
         <v>28</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -3555,31 +3558,31 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F26" s="2">
         <v>2015</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
@@ -3594,10 +3597,10 @@
         <v>17</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -3605,31 +3608,31 @@
         <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F27" s="2">
         <v>2015</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
@@ -3641,13 +3644,13 @@
         <v>28</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -3655,13 +3658,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F28" s="2">
         <v>2015</v>
@@ -3670,16 +3673,16 @@
         <v>9999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>26</v>
@@ -3691,13 +3694,13 @@
         <v>28</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3705,13 +3708,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F29" s="2">
         <v>2015</v>
@@ -3720,16 +3723,16 @@
         <v>9999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>26</v>
@@ -3741,13 +3744,13 @@
         <v>28</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3755,13 +3758,13 @@
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="F30" s="2">
         <v>2015</v>
@@ -3770,19 +3773,19 @@
         <v>9999</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>27</v>
@@ -3791,13 +3794,13 @@
         <v>28</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -3805,13 +3808,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>598</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F31" s="2">
         <v>2015</v>
@@ -3820,19 +3823,19 @@
         <v>9999</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>27</v>
@@ -3841,13 +3844,13 @@
         <v>28</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3855,13 +3858,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F32" s="2">
         <v>2015</v>
@@ -3870,16 +3873,16 @@
         <v>9999</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>26</v>
@@ -3891,13 +3894,13 @@
         <v>28</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3905,13 +3908,13 @@
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F33" s="7">
         <v>2015</v>
@@ -3920,19 +3923,19 @@
         <v>9999</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>27</v>
@@ -3941,13 +3944,13 @@
         <v>28</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -3955,13 +3958,13 @@
         <v>17</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F34" s="2">
         <v>2015</v>
@@ -3970,34 +3973,34 @@
         <v>9999</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -4005,28 +4008,28 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F35" s="2">
         <v>2015</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>17</v>
@@ -4041,13 +4044,13 @@
         <v>28</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -4055,31 +4058,31 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F36" s="2">
         <v>2015</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>17</v>
@@ -4094,10 +4097,10 @@
         <v>17</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -4105,28 +4108,28 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F37" s="2">
         <v>2015</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>17</v>
@@ -4141,13 +4144,13 @@
         <v>28</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -4155,31 +4158,31 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F38" s="2">
         <v>2015</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>17</v>
@@ -4191,13 +4194,13 @@
         <v>28</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -4205,13 +4208,13 @@
         <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F39" s="2">
         <v>2015</v>
@@ -4220,16 +4223,16 @@
         <v>9999</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>26</v>
@@ -4241,13 +4244,13 @@
         <v>28</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -4255,13 +4258,13 @@
         <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F40" s="2">
         <v>2015</v>
@@ -4270,16 +4273,16 @@
         <v>9999</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>26</v>
@@ -4291,13 +4294,13 @@
         <v>28</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -4305,13 +4308,13 @@
         <v>17</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="F41" s="2">
         <v>2015</v>
@@ -4320,19 +4323,19 @@
         <v>9999</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>27</v>
@@ -4341,13 +4344,13 @@
         <v>28</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -4355,13 +4358,13 @@
         <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>598</v>
+        <v>52</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2">
         <v>2015</v>
@@ -4370,19 +4373,19 @@
         <v>9999</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>27</v>
@@ -4391,13 +4394,13 @@
         <v>28</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -4405,13 +4408,13 @@
         <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F43" s="2">
         <v>2015</v>
@@ -4420,16 +4423,16 @@
         <v>9999</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>26</v>
@@ -4441,13 +4444,13 @@
         <v>28</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -4455,13 +4458,13 @@
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F44" s="2">
         <v>2015</v>
@@ -4470,19 +4473,19 @@
         <v>9999</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>27</v>
@@ -4491,13 +4494,13 @@
         <v>28</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -4505,13 +4508,13 @@
         <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F45" s="2">
         <v>2015</v>
@@ -4520,34 +4523,34 @@
         <v>9999</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4555,28 +4558,28 @@
         <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F46" s="2">
         <v>2015</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>17</v>
@@ -4591,13 +4594,13 @@
         <v>28</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4605,31 +4608,31 @@
         <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F47" s="2">
         <v>2015</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>17</v>
@@ -4644,10 +4647,10 @@
         <v>17</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -4655,28 +4658,28 @@
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F48" s="2">
         <v>2015</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>17</v>
@@ -4691,13 +4694,13 @@
         <v>28</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -4705,31 +4708,31 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F49" s="2">
         <v>2015</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>17</v>
@@ -4741,13 +4744,13 @@
         <v>28</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -4755,13 +4758,13 @@
         <v>17</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F50" s="2">
         <v>2015</v>
@@ -4770,16 +4773,16 @@
         <v>9999</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>26</v>
@@ -4791,13 +4794,13 @@
         <v>28</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -4805,13 +4808,13 @@
         <v>17</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F51" s="2">
         <v>2015</v>
@@ -4820,16 +4823,16 @@
         <v>9999</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>26</v>
@@ -4841,13 +4844,13 @@
         <v>28</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -4855,13 +4858,13 @@
         <v>17</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="F52" s="2">
         <v>2015</v>
@@ -4870,19 +4873,19 @@
         <v>9999</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>27</v>
@@ -4891,13 +4894,13 @@
         <v>28</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -4905,13 +4908,13 @@
         <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>598</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F53" s="2">
         <v>2015</v>
@@ -4920,19 +4923,19 @@
         <v>9999</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>27</v>
@@ -4941,13 +4944,13 @@
         <v>28</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -4955,13 +4958,13 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F54" s="2">
         <v>2015</v>
@@ -4970,16 +4973,16 @@
         <v>9999</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>26</v>
@@ -4991,13 +4994,13 @@
         <v>28</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -5005,13 +5008,13 @@
         <v>17</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F55" s="2">
         <v>2015</v>
@@ -5020,19 +5023,19 @@
         <v>9999</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>27</v>
@@ -5041,13 +5044,13 @@
         <v>28</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -5055,13 +5058,13 @@
         <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F56" s="2">
         <v>2015</v>
@@ -5070,34 +5073,34 @@
         <v>9999</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -5105,28 +5108,28 @@
         <v>17</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F57" s="2">
         <v>2015</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>17</v>
@@ -5141,13 +5144,13 @@
         <v>28</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -5155,31 +5158,31 @@
         <v>17</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F58" s="2">
         <v>2015</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>17</v>
@@ -5194,10 +5197,10 @@
         <v>17</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -5205,28 +5208,28 @@
         <v>17</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F59" s="2">
         <v>2015</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>17</v>
@@ -5241,13 +5244,13 @@
         <v>28</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -5255,31 +5258,31 @@
         <v>17</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F60" s="2">
         <v>2015</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>17</v>
@@ -5291,13 +5294,13 @@
         <v>28</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -5305,13 +5308,13 @@
         <v>17</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F61" s="2">
         <v>2015</v>
@@ -5320,16 +5323,16 @@
         <v>9999</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>26</v>
@@ -5341,13 +5344,13 @@
         <v>28</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -5355,13 +5358,13 @@
         <v>17</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F62" s="2">
         <v>2015</v>
@@ -5370,19 +5373,19 @@
         <v>9999</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>27</v>
@@ -5391,13 +5394,13 @@
         <v>28</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -5405,13 +5408,13 @@
         <v>17</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F63" s="2">
         <v>2015</v>
@@ -5420,34 +5423,34 @@
         <v>9999</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -5455,28 +5458,28 @@
         <v>17</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F64" s="2">
         <v>2015</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>17</v>
@@ -5491,13 +5494,13 @@
         <v>28</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -5505,31 +5508,31 @@
         <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F65" s="2">
         <v>2015</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>17</v>
@@ -5544,10 +5547,10 @@
         <v>17</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -5555,28 +5558,28 @@
         <v>17</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F66" s="2">
         <v>2015</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>17</v>
@@ -5591,13 +5594,13 @@
         <v>28</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -5605,31 +5608,31 @@
         <v>17</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F67" s="2">
         <v>2015</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>17</v>
@@ -5641,13 +5644,13 @@
         <v>28</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -5655,13 +5658,13 @@
         <v>17</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F68" s="2">
         <v>2015</v>
@@ -5670,16 +5673,16 @@
         <v>9999</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>26</v>
@@ -5691,13 +5694,13 @@
         <v>28</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -5705,13 +5708,13 @@
         <v>17</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F69" s="2">
         <v>2015</v>
@@ -5720,16 +5723,16 @@
         <v>9999</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>26</v>
@@ -5741,13 +5744,13 @@
         <v>28</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -5755,13 +5758,13 @@
         <v>17</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>597</v>
+        <v>46</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F70" s="2">
         <v>2015</v>
@@ -5770,19 +5773,19 @@
         <v>9999</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>27</v>
@@ -5791,13 +5794,13 @@
         <v>28</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -5805,13 +5808,13 @@
         <v>17</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="F71" s="2">
         <v>2015</v>
@@ -5820,19 +5823,19 @@
         <v>9999</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>27</v>
@@ -5841,13 +5844,13 @@
         <v>28</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -5855,13 +5858,13 @@
         <v>17</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F72" s="2">
         <v>2015</v>
@@ -5870,16 +5873,16 @@
         <v>9999</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>26</v>
@@ -5891,13 +5894,13 @@
         <v>28</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -5905,13 +5908,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F73" s="2">
         <v>2015</v>
@@ -5920,19 +5923,19 @@
         <v>9999</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>27</v>
@@ -5941,13 +5944,13 @@
         <v>28</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -5955,13 +5958,13 @@
         <v>17</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F74" s="2">
         <v>2015</v>
@@ -5970,34 +5973,34 @@
         <v>9999</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -6005,28 +6008,28 @@
         <v>17</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F75" s="2">
         <v>2015</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>17</v>
@@ -6041,13 +6044,13 @@
         <v>28</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -6055,31 +6058,31 @@
         <v>17</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F76" s="2">
         <v>2015</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>17</v>
@@ -6094,10 +6097,10 @@
         <v>17</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -6105,28 +6108,28 @@
         <v>17</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F77" s="2">
         <v>2015</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>17</v>
@@ -6141,13 +6144,13 @@
         <v>28</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -6155,31 +6158,31 @@
         <v>17</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F78" s="2">
         <v>2015</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>17</v>
@@ -6191,13 +6194,13 @@
         <v>28</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -6205,13 +6208,13 @@
         <v>17</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F79" s="2">
         <v>2015</v>
@@ -6220,16 +6223,16 @@
         <v>9999</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>26</v>
@@ -6241,13 +6244,13 @@
         <v>28</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -6255,13 +6258,13 @@
         <v>17</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F80" s="2">
         <v>2015</v>
@@ -6270,16 +6273,16 @@
         <v>9999</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>26</v>
@@ -6291,13 +6294,13 @@
         <v>28</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -6305,13 +6308,13 @@
         <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>597</v>
+        <v>46</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F81" s="2">
         <v>2015</v>
@@ -6320,19 +6323,19 @@
         <v>9999</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>27</v>
@@ -6341,13 +6344,13 @@
         <v>28</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -6355,13 +6358,13 @@
         <v>17</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F82" s="2">
         <v>2015</v>
@@ -6370,19 +6373,19 @@
         <v>9999</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>27</v>
@@ -6391,13 +6394,13 @@
         <v>28</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -6405,13 +6408,13 @@
         <v>17</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F83" s="2">
         <v>2015</v>
@@ -6420,16 +6423,16 @@
         <v>9999</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>26</v>
@@ -6441,13 +6444,13 @@
         <v>28</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -6455,13 +6458,13 @@
         <v>17</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F84" s="2">
         <v>2015</v>
@@ -6470,19 +6473,19 @@
         <v>9999</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>27</v>
@@ -6491,13 +6494,13 @@
         <v>28</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -6505,13 +6508,13 @@
         <v>17</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F85" s="2">
         <v>2015</v>
@@ -6520,34 +6523,34 @@
         <v>9999</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -6555,28 +6558,28 @@
         <v>17</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F86" s="2">
         <v>2015</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>17</v>
@@ -6591,13 +6594,13 @@
         <v>28</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -6605,31 +6608,31 @@
         <v>17</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F87" s="2">
         <v>2015</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>17</v>
@@ -6644,10 +6647,10 @@
         <v>17</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -6655,28 +6658,28 @@
         <v>17</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F88">
         <v>2015</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>17</v>
@@ -6691,13 +6694,13 @@
         <v>28</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -6705,31 +6708,31 @@
         <v>17</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F89">
         <v>2015</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>17</v>
@@ -6741,13 +6744,13 @@
         <v>28</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -6755,13 +6758,13 @@
         <v>17</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>424</v>
+        <v>32</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="F90" s="2">
         <v>2015</v>
@@ -6770,16 +6773,16 @@
         <v>9999</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>26</v>
@@ -6791,13 +6794,13 @@
         <v>28</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -6805,13 +6808,13 @@
         <v>17</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>424</v>
+        <v>41</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="F91" s="2">
         <v>2015</v>
@@ -6820,16 +6823,16 @@
         <v>9999</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>26</v>
@@ -6841,13 +6844,13 @@
         <v>28</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -6855,13 +6858,13 @@
         <v>17</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>424</v>
       </c>
       <c r="F92" s="2">
         <v>2015</v>
@@ -6870,19 +6873,19 @@
         <v>9999</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>27</v>
@@ -6891,13 +6894,13 @@
         <v>28</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -6905,13 +6908,13 @@
         <v>17</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>424</v>
+        <v>52</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>430</v>
       </c>
       <c r="F93" s="2">
         <v>2015</v>
@@ -6920,19 +6923,19 @@
         <v>9999</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>27</v>
@@ -6941,13 +6944,13 @@
         <v>28</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -6955,13 +6958,13 @@
         <v>17</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F94" s="2">
         <v>2015</v>
@@ -6970,16 +6973,16 @@
         <v>9999</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>26</v>
@@ -6991,13 +6994,13 @@
         <v>28</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -7005,13 +7008,13 @@
         <v>17</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F95" s="2">
         <v>2015</v>
@@ -7020,19 +7023,19 @@
         <v>9999</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>27</v>
@@ -7041,13 +7044,13 @@
         <v>28</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -7055,13 +7058,13 @@
         <v>17</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F96" s="2">
         <v>2015</v>
@@ -7070,34 +7073,34 @@
         <v>9999</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -7105,28 +7108,28 @@
         <v>17</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F97" s="2">
         <v>2015</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>17</v>
@@ -7141,13 +7144,13 @@
         <v>28</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -7155,31 +7158,31 @@
         <v>17</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F98" s="2">
         <v>2015</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>17</v>
@@ -7194,10 +7197,10 @@
         <v>17</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -7205,28 +7208,28 @@
         <v>17</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F99" s="2">
         <v>2015</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>17</v>
@@ -7241,13 +7244,13 @@
         <v>28</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -7255,31 +7258,31 @@
         <v>17</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F100" s="2">
         <v>2015</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>17</v>
@@ -7291,13 +7294,13 @@
         <v>28</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -7305,13 +7308,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F101" s="2">
         <v>2015</v>
@@ -7320,16 +7323,16 @@
         <v>9999</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>26</v>
@@ -7341,13 +7344,13 @@
         <v>28</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -7355,13 +7358,13 @@
         <v>17</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F102" s="2">
         <v>2015</v>
@@ -7370,16 +7373,16 @@
         <v>9999</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>26</v>
@@ -7391,13 +7394,13 @@
         <v>28</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -7405,13 +7408,13 @@
         <v>17</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>597</v>
+        <v>46</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F103" s="2">
         <v>2015</v>
@@ -7420,19 +7423,19 @@
         <v>9999</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>27</v>
@@ -7441,13 +7444,13 @@
         <v>28</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -7455,13 +7458,13 @@
         <v>17</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="F104" s="2">
         <v>2015</v>
@@ -7470,19 +7473,19 @@
         <v>9999</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>27</v>
@@ -7491,13 +7494,13 @@
         <v>28</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -7505,13 +7508,13 @@
         <v>17</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F105" s="2">
         <v>2015</v>
@@ -7520,16 +7523,16 @@
         <v>9999</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>26</v>
@@ -7541,13 +7544,13 @@
         <v>28</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -7555,13 +7558,13 @@
         <v>17</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F106" s="2">
         <v>2015</v>
@@ -7570,19 +7573,19 @@
         <v>9999</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>27</v>
@@ -7591,13 +7594,13 @@
         <v>28</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -7605,13 +7608,13 @@
         <v>17</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F107" s="2">
         <v>2015</v>
@@ -7620,34 +7623,34 @@
         <v>9999</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -7655,28 +7658,28 @@
         <v>17</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F108" s="2">
         <v>2015</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>17</v>
@@ -7691,13 +7694,13 @@
         <v>28</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -7705,31 +7708,31 @@
         <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F109" s="2">
         <v>2015</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>17</v>
@@ -7744,10 +7747,10 @@
         <v>17</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -7755,28 +7758,28 @@
         <v>17</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F110" s="2">
         <v>2015</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>17</v>
@@ -7791,13 +7794,13 @@
         <v>28</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
         <v>16</v>
       </c>
@@ -7805,31 +7808,31 @@
         <v>17</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F111" s="2">
         <v>2015</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>17</v>
@@ -7841,13 +7844,13 @@
         <v>28</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
@@ -7855,13 +7858,13 @@
         <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>508</v>
+        <v>32</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="F112" s="2">
         <v>2015</v>
@@ -7870,16 +7873,16 @@
         <v>9999</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>26</v>
@@ -7891,13 +7894,13 @@
         <v>28</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
         <v>16</v>
       </c>
@@ -7905,13 +7908,13 @@
         <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>508</v>
+        <v>41</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="F113" s="2">
         <v>2015</v>
@@ -7920,16 +7923,16 @@
         <v>9999</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>26</v>
@@ -7941,13 +7944,13 @@
         <v>28</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -7955,13 +7958,13 @@
         <v>17</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="15" t="s">
         <v>514</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="F114" s="2">
         <v>2015</v>
@@ -7970,19 +7973,19 @@
         <v>9999</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>27</v>
@@ -7991,13 +7994,13 @@
         <v>28</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -8005,13 +8008,13 @@
         <v>17</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>508</v>
+        <v>52</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>514</v>
       </c>
       <c r="F115" s="2">
         <v>2015</v>
@@ -8020,19 +8023,19 @@
         <v>9999</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K115" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>27</v>
@@ -8041,13 +8044,13 @@
         <v>28</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -8055,22 +8058,22 @@
         <v>17</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F116" s="2">
         <v>2015</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>23</v>
@@ -8079,10 +8082,10 @@
         <v>24</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>27</v>
@@ -8091,13 +8094,13 @@
         <v>28</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -8105,13 +8108,13 @@
         <v>17</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F117" s="2">
         <v>2015</v>
@@ -8120,16 +8123,16 @@
         <v>9999</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>26</v>
@@ -8141,13 +8144,13 @@
         <v>28</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -8155,13 +8158,13 @@
         <v>17</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F118" s="2">
         <v>2015</v>
@@ -8170,19 +8173,19 @@
         <v>9999</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>27</v>
@@ -8191,13 +8194,13 @@
         <v>28</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -8205,13 +8208,13 @@
         <v>17</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F119" s="2">
         <v>2015</v>
@@ -8220,34 +8223,34 @@
         <v>9999</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -8255,28 +8258,28 @@
         <v>17</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F120" s="2">
         <v>2015</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>17</v>
@@ -8291,13 +8294,13 @@
         <v>28</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -8305,31 +8308,31 @@
         <v>17</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F121" s="2">
         <v>2015</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>17</v>
@@ -8344,10 +8347,10 @@
         <v>17</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="2" t="s">
         <v>16</v>
       </c>
@@ -8355,28 +8358,28 @@
         <v>17</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F122" s="2">
         <v>2015</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>17</v>
@@ -8391,13 +8394,13 @@
         <v>28</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="2" t="s">
         <v>16</v>
       </c>
@@ -8405,31 +8408,31 @@
         <v>17</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="F123" s="2">
         <v>2015</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>17</v>
@@ -8441,13 +8444,13 @@
         <v>28</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="2" t="s">
         <v>16</v>
       </c>
@@ -8455,13 +8458,13 @@
         <v>17</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>595</v>
+        <v>32</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F124" s="2">
         <v>2015</v>
@@ -8470,16 +8473,16 @@
         <v>9999</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K124" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>26</v>
@@ -8491,13 +8494,13 @@
         <v>28</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -8505,13 +8508,13 @@
         <v>17</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>596</v>
+        <v>41</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F125" s="2">
         <v>2015</v>
@@ -8520,16 +8523,16 @@
         <v>9999</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K125" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>26</v>
@@ -8541,13 +8544,13 @@
         <v>28</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -8555,13 +8558,13 @@
         <v>17</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>597</v>
+        <v>46</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F126" s="2">
         <v>2015</v>
@@ -8570,19 +8573,19 @@
         <v>9999</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>27</v>
@@ -8591,13 +8594,13 @@
         <v>28</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -8605,13 +8608,13 @@
         <v>17</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="F127" s="2">
         <v>2015</v>
@@ -8620,19 +8623,19 @@
         <v>9999</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>27</v>
@@ -8641,13 +8644,13 @@
         <v>28</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="2" t="s">
         <v>16</v>
       </c>
@@ -8655,13 +8658,13 @@
         <v>17</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>599</v>
+        <v>122</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F128" s="2">
         <v>2015</v>
@@ -8670,16 +8673,16 @@
         <v>9999</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>26</v>
@@ -8691,13 +8694,13 @@
         <v>28</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="2" t="s">
         <v>16</v>
       </c>
@@ -8705,13 +8708,13 @@
         <v>17</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F129" s="2">
         <v>2015</v>
@@ -8720,19 +8723,19 @@
         <v>9999</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>27</v>
@@ -8741,13 +8744,13 @@
         <v>28</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="2" t="s">
         <v>16</v>
       </c>
@@ -8755,13 +8758,13 @@
         <v>17</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="F130" s="2">
         <v>2015</v>
@@ -8770,34 +8773,34 @@
         <v>9999</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
@@ -8805,28 +8808,28 @@
         <v>17</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F131" s="2">
         <v>2015</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>17</v>
@@ -8841,13 +8844,13 @@
         <v>28</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -8855,31 +8858,31 @@
         <v>17</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F132" s="2">
         <v>2015</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>17</v>
@@ -8894,10 +8897,10 @@
         <v>17</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -8905,28 +8908,28 @@
         <v>17</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F133" s="9">
         <v>2015</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>17</v>
@@ -8941,13 +8944,13 @@
         <v>28</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P133" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
@@ -8955,31 +8958,31 @@
         <v>17</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F134" s="2">
         <v>2015</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>17</v>
@@ -8991,13 +8994,13 @@
         <v>28</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="3"/>
@@ -9015,7 +9018,7 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -9033,431 +9036,431 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16">
       <c r="E137"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16">
       <c r="E138"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16">
       <c r="E139"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16">
       <c r="E140"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16">
       <c r="E141"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16">
       <c r="E142"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16">
       <c r="E143"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16">
       <c r="E144"/>
     </row>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+    <row r="204" customFormat="1"/>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1"/>
+    <row r="208" customFormat="1"/>
+    <row r="209" customFormat="1"/>
+    <row r="210" customFormat="1"/>
+    <row r="211" customFormat="1"/>
+    <row r="212" customFormat="1"/>
+    <row r="213" customFormat="1"/>
+    <row r="214" customFormat="1"/>
+    <row r="215" customFormat="1"/>
+    <row r="216" customFormat="1"/>
+    <row r="217" customFormat="1"/>
+    <row r="218" customFormat="1"/>
+    <row r="219" customFormat="1"/>
+    <row r="220" customFormat="1"/>
+    <row r="221" customFormat="1"/>
+    <row r="222" customFormat="1"/>
+    <row r="223" customFormat="1"/>
+    <row r="224" customFormat="1"/>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" customFormat="1"/>
+    <row r="290" customFormat="1"/>
+    <row r="291" customFormat="1"/>
+    <row r="292" customFormat="1"/>
+    <row r="293" customFormat="1"/>
+    <row r="294" customFormat="1"/>
+    <row r="295" customFormat="1"/>
+    <row r="296" customFormat="1"/>
+    <row r="297" customFormat="1"/>
+    <row r="298" customFormat="1"/>
+    <row r="299" customFormat="1"/>
+    <row r="300" customFormat="1"/>
+    <row r="301" customFormat="1"/>
+    <row r="302" customFormat="1"/>
+    <row r="303" customFormat="1"/>
+    <row r="304" customFormat="1"/>
+    <row r="305" customFormat="1"/>
+    <row r="306" customFormat="1"/>
+    <row r="307" customFormat="1"/>
+    <row r="308" customFormat="1"/>
+    <row r="309" customFormat="1"/>
+    <row r="310" customFormat="1"/>
+    <row r="311" customFormat="1"/>
+    <row r="312" customFormat="1"/>
+    <row r="313" customFormat="1"/>
+    <row r="314" customFormat="1"/>
+    <row r="315" customFormat="1"/>
+    <row r="316" customFormat="1"/>
+    <row r="317" customFormat="1"/>
+    <row r="318" customFormat="1"/>
+    <row r="319" customFormat="1"/>
+    <row r="320" customFormat="1"/>
+    <row r="321" customFormat="1"/>
+    <row r="322" customFormat="1"/>
+    <row r="323" customFormat="1"/>
+    <row r="324" customFormat="1"/>
+    <row r="325" customFormat="1"/>
+    <row r="326" customFormat="1"/>
+    <row r="327" customFormat="1"/>
+    <row r="328" customFormat="1"/>
+    <row r="329" customFormat="1"/>
+    <row r="330" customFormat="1"/>
+    <row r="331" customFormat="1"/>
+    <row r="332" customFormat="1"/>
+    <row r="333" customFormat="1"/>
+    <row r="334" customFormat="1"/>
+    <row r="335" customFormat="1"/>
+    <row r="336" customFormat="1"/>
+    <row r="337" customFormat="1"/>
+    <row r="338" customFormat="1"/>
+    <row r="339" customFormat="1"/>
+    <row r="340" customFormat="1"/>
+    <row r="341" customFormat="1"/>
+    <row r="342" customFormat="1"/>
+    <row r="343" customFormat="1"/>
+    <row r="344" customFormat="1"/>
+    <row r="345" customFormat="1"/>
+    <row r="346" customFormat="1"/>
+    <row r="347" customFormat="1"/>
+    <row r="348" customFormat="1"/>
+    <row r="349" customFormat="1"/>
+    <row r="350" customFormat="1"/>
+    <row r="351" customFormat="1"/>
+    <row r="352" customFormat="1"/>
+    <row r="353" customFormat="1"/>
+    <row r="354" customFormat="1"/>
+    <row r="355" customFormat="1"/>
+    <row r="356" customFormat="1"/>
+    <row r="357" customFormat="1"/>
+    <row r="358" customFormat="1"/>
+    <row r="359" customFormat="1"/>
+    <row r="360" customFormat="1"/>
+    <row r="361" customFormat="1"/>
+    <row r="362" customFormat="1"/>
+    <row r="363" customFormat="1"/>
+    <row r="364" customFormat="1"/>
+    <row r="365" customFormat="1"/>
+    <row r="366" customFormat="1"/>
+    <row r="367" customFormat="1"/>
+    <row r="368" customFormat="1"/>
+    <row r="369" customFormat="1"/>
+    <row r="370" customFormat="1"/>
+    <row r="371" customFormat="1"/>
+    <row r="372" customFormat="1"/>
+    <row r="373" customFormat="1"/>
+    <row r="374" customFormat="1"/>
+    <row r="375" customFormat="1"/>
+    <row r="376" customFormat="1"/>
+    <row r="377" customFormat="1"/>
+    <row r="378" customFormat="1"/>
+    <row r="379" customFormat="1"/>
+    <row r="380" customFormat="1"/>
+    <row r="381" customFormat="1"/>
+    <row r="382" customFormat="1"/>
+    <row r="383" customFormat="1"/>
+    <row r="384" customFormat="1"/>
+    <row r="385" customFormat="1"/>
+    <row r="386" customFormat="1"/>
+    <row r="387" customFormat="1"/>
+    <row r="388" customFormat="1"/>
+    <row r="389" customFormat="1"/>
+    <row r="390" customFormat="1"/>
+    <row r="391" customFormat="1"/>
+    <row r="392" customFormat="1"/>
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1"/>
+    <row r="395" customFormat="1"/>
+    <row r="396" customFormat="1"/>
+    <row r="397" customFormat="1"/>
+    <row r="398" customFormat="1"/>
+    <row r="399" customFormat="1"/>
+    <row r="400" customFormat="1"/>
+    <row r="401" customFormat="1"/>
+    <row r="402" customFormat="1"/>
+    <row r="403" customFormat="1"/>
+    <row r="404" customFormat="1"/>
+    <row r="405" customFormat="1"/>
+    <row r="406" customFormat="1"/>
+    <row r="407" customFormat="1"/>
+    <row r="408" customFormat="1"/>
+    <row r="409" customFormat="1"/>
+    <row r="410" customFormat="1"/>
+    <row r="411" customFormat="1"/>
+    <row r="412" customFormat="1"/>
+    <row r="413" customFormat="1"/>
+    <row r="414" customFormat="1"/>
+    <row r="415" customFormat="1"/>
+    <row r="416" customFormat="1"/>
+    <row r="417" customFormat="1"/>
+    <row r="418" customFormat="1"/>
+    <row r="419" customFormat="1"/>
+    <row r="420" customFormat="1"/>
+    <row r="421" customFormat="1"/>
+    <row r="422" customFormat="1"/>
+    <row r="423" customFormat="1"/>
+    <row r="424" customFormat="1"/>
+    <row r="425" customFormat="1"/>
+    <row r="426" customFormat="1"/>
+    <row r="427" customFormat="1"/>
+    <row r="428" customFormat="1"/>
+    <row r="429" customFormat="1"/>
+    <row r="430" customFormat="1"/>
+    <row r="431" customFormat="1"/>
+    <row r="432" customFormat="1"/>
+    <row r="433" spans="5:5">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5">
       <c r="E435"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5">
       <c r="E436"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5">
       <c r="E437"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5">
       <c r="E438"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5">
       <c r="E439"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5">
       <c r="E440"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5">
       <c r="E441"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5">
       <c r="E442"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5">
       <c r="E443"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E444" s="15"/>
-    </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E445" s="15"/>
-    </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E446" s="15"/>
-    </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E447" s="15"/>
-    </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E448" s="15"/>
-    </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E449" s="15"/>
-    </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E450" s="15"/>
-    </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E451" s="15"/>
-    </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E452" s="15"/>
-    </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E453" s="15"/>
-    </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E454" s="15"/>
-    </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E455" s="15"/>
-    </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E456" s="15"/>
-    </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E457" s="15"/>
-    </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E458" s="15"/>
-    </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E459" s="15"/>
-    </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E460" s="15"/>
-    </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E461" s="15"/>
-    </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E462" s="15"/>
-    </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E463" s="15"/>
-    </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E464" s="15"/>
-    </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E465" s="15"/>
-    </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E466" s="15"/>
-    </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E467" s="15"/>
-    </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E468" s="15"/>
-    </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E469" s="15"/>
-    </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E470" s="15"/>
+    <row r="444" spans="5:5">
+      <c r="E444" s="16"/>
+    </row>
+    <row r="445" spans="5:5">
+      <c r="E445" s="16"/>
+    </row>
+    <row r="446" spans="5:5">
+      <c r="E446" s="16"/>
+    </row>
+    <row r="447" spans="5:5">
+      <c r="E447" s="16"/>
+    </row>
+    <row r="448" spans="5:5">
+      <c r="E448" s="16"/>
+    </row>
+    <row r="449" spans="5:5">
+      <c r="E449" s="16"/>
+    </row>
+    <row r="450" spans="5:5">
+      <c r="E450" s="16"/>
+    </row>
+    <row r="451" spans="5:5">
+      <c r="E451" s="16"/>
+    </row>
+    <row r="452" spans="5:5">
+      <c r="E452" s="16"/>
+    </row>
+    <row r="453" spans="5:5">
+      <c r="E453" s="16"/>
+    </row>
+    <row r="454" spans="5:5">
+      <c r="E454" s="16"/>
+    </row>
+    <row r="455" spans="5:5">
+      <c r="E455" s="16"/>
+    </row>
+    <row r="456" spans="5:5">
+      <c r="E456" s="16"/>
+    </row>
+    <row r="457" spans="5:5">
+      <c r="E457" s="16"/>
+    </row>
+    <row r="458" spans="5:5">
+      <c r="E458" s="16"/>
+    </row>
+    <row r="459" spans="5:5">
+      <c r="E459" s="16"/>
+    </row>
+    <row r="460" spans="5:5">
+      <c r="E460" s="16"/>
+    </row>
+    <row r="461" spans="5:5">
+      <c r="E461" s="16"/>
+    </row>
+    <row r="462" spans="5:5">
+      <c r="E462" s="16"/>
+    </row>
+    <row r="463" spans="5:5">
+      <c r="E463" s="16"/>
+    </row>
+    <row r="464" spans="5:5">
+      <c r="E464" s="16"/>
+    </row>
+    <row r="465" spans="5:5">
+      <c r="E465" s="16"/>
+    </row>
+    <row r="466" spans="5:5">
+      <c r="E466" s="16"/>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" s="16"/>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" s="16"/>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" s="16"/>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
